--- a/Midas/Documents/Tasks.xlsx
+++ b/Midas/Documents/Tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Comments</t>
   </si>
@@ -44,9 +44,6 @@
     <t>User,Patients,Medical Offices,Providers scheme design and JSON should be completed to implement web api</t>
   </si>
   <si>
-    <t>Employers to have a separate table-Pending</t>
-  </si>
-  <si>
     <t>Default Attorney should go in Medical Facilities table</t>
   </si>
   <si>
@@ -69,6 +66,21 @@
   </si>
   <si>
     <t>Picture column in User should be renamed as Image Link</t>
+  </si>
+  <si>
+    <t>Lookup table for Pateint insurance</t>
+  </si>
+  <si>
+    <t>PatientID instead of PatientDetailID</t>
+  </si>
+  <si>
+    <t>Doctor Medical Provider association table</t>
+  </si>
+  <si>
+    <t>Doctor specialities table (Not required as we can keep all specialities id in the form of csv)</t>
+  </si>
+  <si>
+    <t>Employers to have a separate table</t>
   </si>
 </sst>
 </file>
@@ -444,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -472,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -480,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -488,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -496,26 +508,24 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7">
-        <v>42564</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="7">
         <v>42564</v>
@@ -523,35 +533,70 @@
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
